--- a/Projects/New_geodome/geodome.xlsx
+++ b/Projects/New_geodome/geodome.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanstuder/Desktop/fabfarm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanstuder/Documents/GitHub/Docs/Projects/New_geodome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C66B2-384C-DF49-8FCD-DD73737AE49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E81E6-4CD6-C84B-B896-D764ADA89761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{946043D0-308E-554B-A8D5-D2459E03887B}"/>
   </bookViews>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t xml:space="preserve">GEODOME </t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>repair tape  :</t>
+  </si>
+  <si>
+    <t>ghi</t>
   </si>
 </sst>
 </file>
@@ -642,9 +645,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -667,6 +667,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -675,33 +699,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -727,26 +730,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B06AB053-DA76-EE41-9190-107CEDDBDD40}" name="Tableau1" displayName="Tableau1" ref="B4:N7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B06AB053-DA76-EE41-9190-107CEDDBDD40}" name="Tableau1" displayName="Tableau1" ref="B4:N7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B4:N7" xr:uid="{B06AB053-DA76-EE41-9190-107CEDDBDD40}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D038A0C5-2BB0-B14B-B076-E9A4B9D9A379}" name="Options :" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6B1CEC29-3D85-5F49-BEF7-0E78DC1A5293}" name="link " dataDxfId="16" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="3" xr3:uid="{8F9FE9B1-5AE9-6E4C-88D6-4BE1AC926E97}" name="dimension" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{CB539C3E-00D8-904E-A3A4-70792B8839FB}" name="color" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{C7D2C93F-B837-7A4F-96FE-D6BFF24617D0}" name="surface/piece (m2)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{AA802607-484B-1A43-925C-EAB3248B1072}" name="units" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{8458A102-9CF0-1847-8FFD-EDD9673760CC}" name="total surface (m2)" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{D038A0C5-2BB0-B14B-B076-E9A4B9D9A379}" name="Options :" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6B1CEC29-3D85-5F49-BEF7-0E78DC1A5293}" name="link " dataDxfId="14" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="3" xr3:uid="{8F9FE9B1-5AE9-6E4C-88D6-4BE1AC926E97}" name="dimension" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{CB539C3E-00D8-904E-A3A4-70792B8839FB}" name="color" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C7D2C93F-B837-7A4F-96FE-D6BFF24617D0}" name="surface/piece (m2)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AA802607-484B-1A43-925C-EAB3248B1072}" name="units" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{8458A102-9CF0-1847-8FFD-EDD9673760CC}" name="total surface (m2)" dataDxfId="9">
       <calculatedColumnFormula>F5*G5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45A3C747-CB9E-FE41-8AFC-31DC81AA08A9}" name="extra surface (m2)" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{45A3C747-CB9E-FE41-8AFC-31DC81AA08A9}" name="extra surface (m2)" dataDxfId="8">
       <calculatedColumnFormula>H5-$C$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4D22E456-30C4-EC42-B934-1E38EC7A2C07}" name="thickness (mm)" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{D4CC2702-A428-924D-8C60-C1FD21760DDC}" name="price (€/each)" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{1A83120B-3109-CB4B-B25E-D67ACDDBB3BA}" name="shipping fee" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{4D22E456-30C4-EC42-B934-1E38EC7A2C07}" name="thickness (mm)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D4CC2702-A428-924D-8C60-C1FD21760DDC}" name="price (€/each)" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1A83120B-3109-CB4B-B25E-D67ACDDBB3BA}" name="shipping fee" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{F9608F3F-5DE4-B246-8112-5913EBA9F7B5}" name="delivery date "/>
-    <tableColumn id="11" xr3:uid="{CCFA9041-6381-1648-B8FE-AF1209010470}" name="TOTAL price (€)" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{CCFA9041-6381-1648-B8FE-AF1209010470}" name="TOTAL price (€)" dataDxfId="4">
       <calculatedColumnFormula>K5*G5+L5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -755,12 +758,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A725774-F35C-1E40-A45B-5F7B0AAE62E7}" name="Tableau2" displayName="Tableau2" ref="C3:E10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A725774-F35C-1E40-A45B-5F7B0AAE62E7}" name="Tableau2" displayName="Tableau2" ref="C3:E10" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="C3:E10" xr:uid="{9A725774-F35C-1E40-A45B-5F7B0AAE62E7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6779A88A-6A34-084F-8EE4-9E1C3304C486}" name="Wood pieces " dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{13E386B0-54EA-234A-A020-8389EA1F4872}" name="Units" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CB89EB30-9EDB-1F40-B1EF-414C397C7DA0}" name="Length " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6779A88A-6A34-084F-8EE4-9E1C3304C486}" name="Wood pieces " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{13E386B0-54EA-234A-A020-8389EA1F4872}" name="Units" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CB89EB30-9EDB-1F40-B1EF-414C397C7DA0}" name="Length " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1175,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAD028B-6615-CB4E-A27A-2B463C8462E3}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,6 +1390,11 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
